--- a/root_cause_analysis (archive)/rca_data_1.xlsx
+++ b/root_cause_analysis (archive)/rca_data_1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\96015\Desktop\Programming\Off_Project_Folders\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JDowd\OneDrive - Schlumberger\Programming\EMR_Fault_Trees_RCA\root_cause_analysis (archive)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7735D5B8-4EDA-475B-AEED-AF474B8567CD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{7735D5B8-4EDA-475B-AEED-AF474B8567CD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{CF763DF2-9325-4C82-84A7-6DC9ADCC7D2D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -907,6 +907,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:D105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -936,7 +937,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>85</v>
       </c>
@@ -947,7 +948,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>94</v>
       </c>
@@ -958,7 +959,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>94</v>
       </c>
@@ -969,7 +970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -980,7 +981,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -991,7 +992,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>28</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>27</v>
       </c>
@@ -1024,7 +1025,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>27</v>
       </c>
@@ -1035,7 +1036,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
@@ -1046,7 +1047,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1057,7 +1058,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
@@ -1068,7 +1069,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
@@ -1090,7 +1091,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>89</v>
       </c>
@@ -1101,7 +1102,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>89</v>
       </c>
@@ -1112,7 +1113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>2</v>
       </c>
@@ -1123,7 +1124,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>2</v>
       </c>
@@ -1134,7 +1135,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>4</v>
       </c>
@@ -1145,7 +1146,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1157,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -1167,7 +1168,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>3</v>
       </c>
@@ -1178,7 +1179,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>3</v>
       </c>
@@ -1189,7 +1190,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>3</v>
       </c>
@@ -1200,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>7</v>
       </c>
@@ -1208,7 +1209,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>9</v>
       </c>
@@ -1219,7 +1220,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -1230,7 +1231,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>87</v>
       </c>
@@ -1241,7 +1242,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>87</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>93</v>
       </c>
@@ -1263,7 +1264,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1274,7 +1275,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>81</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>81</v>
       </c>
@@ -1296,7 +1297,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>72</v>
       </c>
@@ -1307,7 +1308,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>72</v>
       </c>
@@ -1362,7 +1363,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>124</v>
       </c>
@@ -1376,7 +1377,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>124</v>
       </c>
@@ -1390,7 +1391,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>124</v>
       </c>
@@ -1401,7 +1402,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>124</v>
       </c>
@@ -1412,7 +1413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>124</v>
       </c>
@@ -1423,7 +1424,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>124</v>
       </c>
@@ -1434,7 +1435,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>124</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>21</v>
       </c>
@@ -1456,7 +1457,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>22</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="s">
         <v>30</v>
       </c>
@@ -1478,7 +1479,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="s">
         <v>31</v>
       </c>
@@ -1489,7 +1490,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="s">
         <v>26</v>
       </c>
@@ -1500,7 +1501,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>152</v>
       </c>
@@ -1511,7 +1512,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>152</v>
       </c>
@@ -1522,7 +1523,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>152</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>152</v>
       </c>
@@ -1544,7 +1545,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>152</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>5</v>
       </c>
@@ -1569,7 +1570,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>5</v>
       </c>
@@ -1583,7 +1584,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>5</v>
       </c>
@@ -1594,7 +1595,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>5</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>144</v>
       </c>
@@ -1616,7 +1617,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>144</v>
       </c>
@@ -1627,7 +1628,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>76</v>
       </c>
@@ -1638,7 +1639,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>16</v>
       </c>
@@ -1649,7 +1650,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>16</v>
       </c>
@@ -1660,7 +1661,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>152</v>
       </c>
@@ -1671,7 +1672,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>139</v>
       </c>
@@ -1682,7 +1683,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
@@ -1693,7 +1694,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
@@ -1704,7 +1705,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>103</v>
       </c>
@@ -1715,7 +1716,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>103</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>102</v>
       </c>
@@ -1737,7 +1738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>109</v>
       </c>
@@ -1748,7 +1749,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>102</v>
       </c>
@@ -1759,7 +1760,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>112</v>
       </c>
@@ -1770,7 +1771,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>112</v>
       </c>
@@ -1781,7 +1782,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +1793,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>114</v>
       </c>
@@ -1803,7 +1804,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>114</v>
       </c>
@@ -1814,7 +1815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>11</v>
       </c>
@@ -1825,7 +1826,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>11</v>
       </c>
@@ -1847,7 +1848,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>131</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>131</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>124</v>
       </c>
@@ -1880,7 +1881,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>72</v>
       </c>
@@ -1891,7 +1892,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>15</v>
       </c>
@@ -1899,7 +1900,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>15</v>
       </c>
@@ -1907,7 +1908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>120</v>
       </c>
@@ -1915,7 +1916,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>120</v>
       </c>
@@ -1923,7 +1924,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>152</v>
       </c>
@@ -1934,7 +1935,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>132</v>
       </c>
@@ -1942,7 +1943,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" s="5" t="s">
         <v>132</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" s="5" t="s">
         <v>134</v>
       </c>
@@ -1958,7 +1959,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" s="5" t="s">
         <v>134</v>
       </c>
@@ -1966,7 +1967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" s="5" t="s">
         <v>136</v>
       </c>
@@ -1974,7 +1975,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" s="5" t="s">
         <v>136</v>
       </c>
@@ -1982,7 +1983,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" s="5" t="s">
         <v>19</v>
       </c>
@@ -1993,7 +1994,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4" t="s">
         <v>31</v>
       </c>
@@ -2004,7 +2005,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>152</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>148</v>
       </c>
@@ -2026,7 +2027,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>148</v>
       </c>
@@ -2037,7 +2038,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" s="5" t="s">
         <v>146</v>
       </c>
@@ -2048,7 +2049,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" s="5" t="s">
         <v>147</v>
       </c>
@@ -2061,6 +2062,11 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:D105" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="TCU Failed Cooling"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D65">
       <sortCondition ref="A1:A63"/>
     </sortState>
